--- a/PA3/PA3.xlsx
+++ b/PA3/PA3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17a8369ae1103643/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\criley\COSC530\PA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0D1FFF-4025-401C-B42C-93F6BC7AF88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17163D0E-E414-4EEB-81C5-004846E5F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{4DC71B9F-0F1E-4EFD-AB7E-57CA4C170BB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4DC71B9F-0F1E-4EFD-AB7E-57CA4C170BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="PA3" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'PA3'!$A$2:$A$5</c:f>
@@ -260,7 +318,7 @@
                   <c:v>2.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0160000000000001E-2</c:v>
+                  <c:v>2.4330000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.0000000000000001E-3</c:v>
@@ -278,8 +336,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -704,6 +763,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'PA3'!$A$9:$A$12</c:f>
@@ -731,16 +848,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0500000000000001E-2</c:v>
+                  <c:v>4.3159999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0500000000000001E-2</c:v>
+                  <c:v>4.0660000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0330000000000001E-2</c:v>
+                  <c:v>2.4160000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,8 +869,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1138,6 +1256,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'PA3'!$A$16:$A$19</c:f>
@@ -1165,16 +1341,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.133E-2</c:v>
+                  <c:v>8.566E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.133E-2</c:v>
+                  <c:v>8.516E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.0160000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0500000000000001E-2</c:v>
+                  <c:v>4.1160000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,8 +1362,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1567,6 +1744,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'PA3'!$A$24:$A$27</c:f>
@@ -1594,16 +1829,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.16233</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16250000000000001</c:v>
+                  <c:v>0.16233</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0660000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.183E-2</c:v>
+                  <c:v>8.1500000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,8 +1850,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4534,17 +4770,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA0170A-4600-461F-B5B1-8537E2BCC5A2}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -4552,7 +4788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4560,15 +4796,15 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0160000000000001E-2</v>
+        <v>2.4330000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4576,7 +4812,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4584,7 +4820,7 @@
         <v>1.0160000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -4592,39 +4828,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>4.0500000000000001E-2</v>
+        <v>4.3159999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>4.0500000000000001E-2</v>
+        <v>4.0660000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>1.06E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>2.0330000000000001E-2</v>
+        <v>2.4160000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -4632,23 +4868,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>8.133E-2</v>
+        <v>8.566E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>8.133E-2</v>
+        <v>8.516E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4656,15 +4892,15 @@
         <v>2.0160000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>4.0500000000000001E-2</v>
+        <v>4.1160000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -4672,23 +4908,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0.16233</v>
+        <v>0.16250000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0.16250000000000001</v>
+        <v>0.16233</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -4696,12 +4932,12 @@
         <v>4.0660000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27">
-        <v>8.183E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
